--- a/price/xycp.xlsx
+++ b/price/xycp.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13050" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>ZGXM</t>
   </si>
@@ -40,7 +40,7 @@
     <t>330666198709091005</t>
   </si>
   <si>
-    <t>100</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>赵明欣</t>
@@ -60,167 +60,167 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -520,116 +520,111 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0"/>
+    <xf borderId="7" fillId="20" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="6" fillId="16" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="7" fillId="5" fontId="14" numFmtId="0"/>
+    <xf borderId="8" fillId="27" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -889,18 +884,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="20.375"/>
+    <col customWidth="1" max="3" min="3" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,7 +957,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>